--- a/docentes/Silva Villegas Mario - Estadisticos 2020.xlsx
+++ b/docentes/Silva Villegas Mario - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,81 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>JORGE HUMBERTO</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>AMANDA MICHEL</t>
+  </si>
+  <si>
+    <t>ALEXIS ARMANDO</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>ZURIEL ARTURO</t>
+  </si>
+  <si>
+    <t>JORGE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>YAIR</t>
   </si>
 </sst>
 </file>
@@ -782,7 +857,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +890,259 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920075</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920061</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920062</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920058</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920058</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920059</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920059</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920088</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920058</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920064</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920066</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Silva Villegas Mario - Estadisticos 2020.xlsx
+++ b/docentes/Silva Villegas Mario - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,81 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>JORGE HUMBERTO</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>AMANDA MICHEL</t>
-  </si>
-  <si>
-    <t>ALEXIS ARMANDO</t>
-  </si>
-  <si>
-    <t>AGUSTIN</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>ZURIEL ARTURO</t>
-  </si>
-  <si>
-    <t>JORGE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>YAIR</t>
   </si>
 </sst>
 </file>
@@ -552,19 +477,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>36.11</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -578,19 +503,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>27.59</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,19 +529,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>20.69</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -672,16 +597,19 @@
         <v>36</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>36</v>
       </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -695,16 +623,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -718,16 +649,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -783,19 +717,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>36.11</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -809,19 +743,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>27.59</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -835,19 +769,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>20.69</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +791,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,259 +824,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920075</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920061</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920062</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920058</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920058</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920059</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920059</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920088</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920058</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920064</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920066</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
